--- a/Testdata/Templates/ExcludedStudies_LiveSLR/Expected_Test_data.xlsx
+++ b/Testdata/Templates/ExcludedStudies_LiveSLR/Expected_Test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\ExcludedStudies_LiveSLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9592A566-C039-445F-A992-B7501893D5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7328C5-D020-4A3B-A207-99E70A14F121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{3251AEFC-6B8B-413E-8457-4C0D6B3F99F6}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="QoL" sheetId="3" r:id="rId3"/>
     <sheet name="RWE" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RWE!$A$1:$I$96</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2328,9 +2331,6 @@
     <t>MM with maintenance post-SCT, &lt; 70 years old</t>
   </si>
   <si>
-    <t>OriginalAndUpdate</t>
-  </si>
-  <si>
     <t>MM with maintenance post-allo-SCT, high risk</t>
   </si>
   <si>
@@ -2677,13 +2677,16 @@
   </si>
   <si>
     <t>NDMM who received lenalidomide + bortezomib + dexamethasone induction followed by SCT and maintenance</t>
+  </si>
+  <si>
+    <t>Original &amp; Update</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2711,48 +2714,57 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3306,9 +3318,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46809481-FD4D-4F6B-A190-364559B07959}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F69"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.77734375" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" customWidth="1"/>
@@ -3321,7 +3335,7 @@
     <col min="9" max="9" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>702</v>
       </c>
@@ -3350,7 +3364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.05" customHeight="1">
+    <row r="2" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>582</v>
       </c>
@@ -3366,7 +3380,7 @@
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -3379,7 +3393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.05" customHeight="1">
+    <row r="3" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>584</v>
       </c>
@@ -3395,7 +3409,7 @@
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -3408,7 +3422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.05" customHeight="1">
+    <row r="4" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>586</v>
       </c>
@@ -3424,7 +3438,7 @@
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -3437,7 +3451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="43.05" customHeight="1">
+    <row r="5" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>588</v>
       </c>
@@ -3453,7 +3467,7 @@
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -3466,7 +3480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.05" customHeight="1">
+    <row r="6" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>590</v>
       </c>
@@ -3482,7 +3496,7 @@
       <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -3495,7 +3509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="43.05" customHeight="1">
+    <row r="7" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>592</v>
       </c>
@@ -3511,7 +3525,7 @@
       <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -3524,7 +3538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="43.05" customHeight="1">
+    <row r="8" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>594</v>
       </c>
@@ -3540,7 +3554,7 @@
       <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -3553,7 +3567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="43.05" customHeight="1">
+    <row r="9" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>596</v>
       </c>
@@ -3569,7 +3583,7 @@
       <c r="E9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -3582,7 +3596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.05" customHeight="1">
+    <row r="10" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>598</v>
       </c>
@@ -3598,11 +3612,11 @@
       <c r="E10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>710</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>711</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>691</v>
@@ -3611,7 +3625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="43.05" customHeight="1">
+    <row r="11" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>600</v>
       </c>
@@ -3627,11 +3641,11 @@
       <c r="E11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>710</v>
+      <c r="F11" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>691</v>
@@ -3640,7 +3654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="43.05" customHeight="1">
+    <row r="12" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>593</v>
       </c>
@@ -3656,11 +3670,11 @@
       <c r="E12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>691</v>
@@ -3669,7 +3683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="43.05" customHeight="1">
+    <row r="13" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>603</v>
       </c>
@@ -3685,11 +3699,11 @@
       <c r="E13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>691</v>
@@ -3698,7 +3712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="43.05" customHeight="1">
+    <row r="14" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>605</v>
       </c>
@@ -3714,11 +3728,11 @@
       <c r="E14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>691</v>
@@ -3727,7 +3741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.05" customHeight="1">
+    <row r="15" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>607</v>
       </c>
@@ -3743,11 +3757,11 @@
       <c r="E15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>691</v>
@@ -3756,7 +3770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="43.05" customHeight="1">
+    <row r="16" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>609</v>
       </c>
@@ -3772,11 +3786,11 @@
       <c r="E16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>691</v>
@@ -3785,7 +3799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="43.05" customHeight="1">
+    <row r="17" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>611</v>
       </c>
@@ -3801,11 +3815,11 @@
       <c r="E17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>691</v>
@@ -3814,7 +3828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="43.05" customHeight="1">
+    <row r="18" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>611</v>
       </c>
@@ -3830,11 +3844,11 @@
       <c r="E18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="2" t="s">
         <v>701</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>691</v>
@@ -3843,7 +3857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="43.05" customHeight="1">
+    <row r="19" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>613</v>
       </c>
@@ -3859,7 +3873,7 @@
       <c r="E19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -3872,7 +3886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="43.05" customHeight="1">
+    <row r="20" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>615</v>
       </c>
@@ -3888,11 +3902,11 @@
       <c r="E20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>691</v>
@@ -3901,7 +3915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="43.05" customHeight="1">
+    <row r="21" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>617</v>
       </c>
@@ -3917,7 +3931,7 @@
       <c r="E21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -3930,7 +3944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="43.05" customHeight="1">
+    <row r="22" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>619</v>
       </c>
@@ -3946,11 +3960,11 @@
       <c r="E22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>691</v>
@@ -3959,7 +3973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="43.05" customHeight="1">
+    <row r="23" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>621</v>
       </c>
@@ -3975,11 +3989,11 @@
       <c r="E23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>710</v>
+      <c r="F23" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>691</v>
@@ -3988,7 +4002,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="43.05" customHeight="1">
+    <row r="24" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>622</v>
       </c>
@@ -4004,11 +4018,11 @@
       <c r="E24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>691</v>
@@ -4017,7 +4031,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="43.05" customHeight="1">
+    <row r="25" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>624</v>
       </c>
@@ -4033,11 +4047,11 @@
       <c r="E25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>710</v>
+      <c r="F25" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>691</v>
@@ -4046,7 +4060,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="43.05" customHeight="1">
+    <row r="26" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>625</v>
       </c>
@@ -4062,11 +4076,11 @@
       <c r="E26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>691</v>
@@ -4075,7 +4089,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="43.05" customHeight="1">
+    <row r="27" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>627</v>
       </c>
@@ -4091,11 +4105,11 @@
       <c r="E27" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>691</v>
@@ -4104,7 +4118,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="43.05" customHeight="1">
+    <row r="28" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>629</v>
       </c>
@@ -4120,11 +4134,11 @@
       <c r="E28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>710</v>
+      <c r="F28" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>691</v>
@@ -4133,7 +4147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="43.05" customHeight="1">
+    <row r="29" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>629</v>
       </c>
@@ -4149,11 +4163,11 @@
       <c r="E29" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="2" t="s">
         <v>701</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>691</v>
@@ -4162,7 +4176,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="43.05" customHeight="1">
+    <row r="30" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>623</v>
       </c>
@@ -4178,11 +4192,11 @@
       <c r="E30" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>691</v>
@@ -4191,7 +4205,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="43.05" customHeight="1">
+    <row r="31" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>623</v>
       </c>
@@ -4207,11 +4221,11 @@
       <c r="E31" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="2" t="s">
         <v>701</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>691</v>
@@ -4220,7 +4234,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="43.05" customHeight="1">
+    <row r="32" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>631</v>
       </c>
@@ -4236,11 +4250,11 @@
       <c r="E32" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>691</v>
@@ -4249,7 +4263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="43.05" customHeight="1">
+    <row r="33" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>632</v>
       </c>
@@ -4265,11 +4279,11 @@
       <c r="E33" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>691</v>
@@ -4278,7 +4292,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="43.05" customHeight="1">
+    <row r="34" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>634</v>
       </c>
@@ -4294,11 +4308,11 @@
       <c r="E34" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>710</v>
+      <c r="F34" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>691</v>
@@ -4307,7 +4321,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="43.05" customHeight="1">
+    <row r="35" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>626</v>
       </c>
@@ -4323,11 +4337,11 @@
       <c r="E35" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>691</v>
@@ -4336,7 +4350,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="43.05" customHeight="1">
+    <row r="36" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>628</v>
       </c>
@@ -4352,11 +4366,11 @@
       <c r="E36" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>691</v>
@@ -4365,7 +4379,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="43.05" customHeight="1">
+    <row r="37" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>637</v>
       </c>
@@ -4381,11 +4395,11 @@
       <c r="E37" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>691</v>
@@ -4394,7 +4408,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="43.05" customHeight="1">
+    <row r="38" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>639</v>
       </c>
@@ -4410,11 +4424,11 @@
       <c r="E38" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>691</v>
@@ -4423,7 +4437,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="43.05" customHeight="1">
+    <row r="39" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>641</v>
       </c>
@@ -4439,11 +4453,11 @@
       <c r="E39" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>710</v>
+      <c r="F39" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>691</v>
@@ -4452,7 +4466,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="43.05" customHeight="1">
+    <row r="40" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>583</v>
       </c>
@@ -4468,11 +4482,11 @@
       <c r="E40" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>710</v>
+      <c r="F40" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>691</v>
@@ -4481,7 +4495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="43.05" customHeight="1">
+    <row r="41" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>633</v>
       </c>
@@ -4497,11 +4511,11 @@
       <c r="E41" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="2" t="s">
         <v>701</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>691</v>
@@ -4510,7 +4524,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="43.05" customHeight="1">
+    <row r="42" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>633</v>
       </c>
@@ -4526,11 +4540,11 @@
       <c r="E42" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>691</v>
@@ -4539,7 +4553,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="43.05" customHeight="1">
+    <row r="43" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>643</v>
       </c>
@@ -4555,11 +4569,11 @@
       <c r="E43" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>710</v>
+      <c r="F43" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>691</v>
@@ -4568,7 +4582,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="43.05" customHeight="1">
+    <row r="44" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>644</v>
       </c>
@@ -4584,11 +4598,11 @@
       <c r="E44" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>691</v>
@@ -4597,7 +4611,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="43.05" customHeight="1">
+    <row r="45" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>646</v>
       </c>
@@ -4613,11 +4627,11 @@
       <c r="E45" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>691</v>
@@ -4626,7 +4640,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="43.05" customHeight="1">
+    <row r="46" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>635</v>
       </c>
@@ -4642,11 +4656,11 @@
       <c r="E46" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>710</v>
+      <c r="F46" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>691</v>
@@ -4655,7 +4669,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="43.05" customHeight="1">
+    <row r="47" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>636</v>
       </c>
@@ -4671,11 +4685,11 @@
       <c r="E47" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>691</v>
@@ -4684,7 +4698,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="43.05" customHeight="1">
+    <row r="48" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>638</v>
       </c>
@@ -4700,11 +4714,11 @@
       <c r="E48" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>691</v>
@@ -4713,7 +4727,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="43.05" customHeight="1">
+    <row r="49" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>585</v>
       </c>
@@ -4729,11 +4743,11 @@
       <c r="E49" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>691</v>
@@ -4742,7 +4756,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="43.05" customHeight="1">
+    <row r="50" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>587</v>
       </c>
@@ -4758,11 +4772,11 @@
       <c r="E50" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>710</v>
+      <c r="F50" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>691</v>
@@ -4771,7 +4785,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="43.05" customHeight="1">
+    <row r="51" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>589</v>
       </c>
@@ -4787,11 +4801,11 @@
       <c r="E51" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>691</v>
@@ -4800,7 +4814,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="43.05" customHeight="1">
+    <row r="52" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>591</v>
       </c>
@@ -4816,11 +4830,11 @@
       <c r="E52" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>691</v>
@@ -4829,7 +4843,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="43.05" customHeight="1">
+    <row r="53" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>652</v>
       </c>
@@ -4845,11 +4859,11 @@
       <c r="E53" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>691</v>
@@ -4858,7 +4872,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="43.05" customHeight="1">
+    <row r="54" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>597</v>
       </c>
@@ -4874,11 +4888,11 @@
       <c r="E54" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>691</v>
@@ -4887,7 +4901,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="43.05" customHeight="1">
+    <row r="55" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>642</v>
       </c>
@@ -4903,11 +4917,11 @@
       <c r="E55" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>691</v>
@@ -4916,7 +4930,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="43.05" customHeight="1">
+    <row r="56" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>648</v>
       </c>
@@ -4932,11 +4946,11 @@
       <c r="E56" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>691</v>
@@ -4945,7 +4959,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="43.05" customHeight="1">
+    <row r="57" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>649</v>
       </c>
@@ -4961,11 +4975,11 @@
       <c r="E57" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>691</v>
@@ -4974,7 +4988,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="43.05" customHeight="1">
+    <row r="58" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>650</v>
       </c>
@@ -4990,11 +5004,11 @@
       <c r="E58" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>691</v>
@@ -5003,7 +5017,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="43.05" customHeight="1">
+    <row r="59" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>658</v>
       </c>
@@ -5019,11 +5033,11 @@
       <c r="E59" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F59" s="6" t="s">
-        <v>710</v>
+      <c r="F59" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>691</v>
@@ -5032,7 +5046,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="43.05" customHeight="1">
+    <row r="60" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>651</v>
       </c>
@@ -5048,11 +5062,11 @@
       <c r="E60" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>710</v>
+      <c r="F60" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>691</v>
@@ -5061,7 +5075,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="43.05" customHeight="1">
+    <row r="61" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>599</v>
       </c>
@@ -5077,11 +5091,11 @@
       <c r="E61" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>691</v>
@@ -5090,7 +5104,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="43.05" customHeight="1">
+    <row r="62" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>599</v>
       </c>
@@ -5106,11 +5120,11 @@
       <c r="E62" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>710</v>
+      <c r="F62" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>691</v>
@@ -5119,7 +5133,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="43.05" customHeight="1">
+    <row r="63" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>630</v>
       </c>
@@ -5135,7 +5149,7 @@
       <c r="E63" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G63" s="6" t="s">
@@ -5148,7 +5162,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="43.05" customHeight="1">
+    <row r="64" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>595</v>
       </c>
@@ -5164,11 +5178,11 @@
       <c r="E64" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>710</v>
+      <c r="F64" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>691</v>
@@ -5177,7 +5191,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="43.05" customHeight="1">
+    <row r="65" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>661</v>
       </c>
@@ -5193,11 +5207,11 @@
       <c r="E65" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>710</v>
+      <c r="F65" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>691</v>
@@ -5206,7 +5220,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="43.05" customHeight="1">
+    <row r="66" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>661</v>
       </c>
@@ -5222,11 +5236,11 @@
       <c r="E66" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="2" t="s">
         <v>701</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>691</v>
@@ -5235,7 +5249,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="43.05" customHeight="1">
+    <row r="67" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>663</v>
       </c>
@@ -5251,11 +5265,11 @@
       <c r="E67" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="2" t="s">
         <v>689</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>691</v>
@@ -5264,7 +5278,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="43.05" customHeight="1">
+    <row r="68" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>665</v>
       </c>
@@ -5280,11 +5294,11 @@
       <c r="E68" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="2" t="s">
         <v>701</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>691</v>
@@ -5293,7 +5307,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="43.05" customHeight="1">
+    <row r="69" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>647</v>
       </c>
@@ -5309,11 +5323,11 @@
       <c r="E69" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="2" t="s">
         <v>701</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>691</v>
@@ -5333,7 +5347,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5546875" customWidth="1"/>
     <col min="2" max="2" width="27.109375" customWidth="1"/>
@@ -5343,7 +5357,7 @@
     <col min="9" max="9" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>702</v>
       </c>
@@ -5372,7 +5386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.05" customHeight="1">
+    <row r="2" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>632</v>
       </c>
@@ -5401,7 +5415,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.05" customHeight="1">
+    <row r="3" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>634</v>
       </c>
@@ -5430,7 +5444,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.05" customHeight="1">
+    <row r="4" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>621</v>
       </c>
@@ -5459,7 +5473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="43.05" customHeight="1">
+    <row r="5" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>624</v>
       </c>
@@ -5488,7 +5502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.05" customHeight="1">
+    <row r="6" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>625</v>
       </c>
@@ -5517,7 +5531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="43.05" customHeight="1">
+    <row r="7" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>627</v>
       </c>
@@ -5546,7 +5560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="43.05" customHeight="1">
+    <row r="8" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>629</v>
       </c>
@@ -5575,7 +5589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="43.05" customHeight="1">
+    <row r="9" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>626</v>
       </c>
@@ -5604,7 +5618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.05" customHeight="1">
+    <row r="10" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>623</v>
       </c>
@@ -5633,7 +5647,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="43.05" customHeight="1">
+    <row r="11" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>584</v>
       </c>
@@ -5662,7 +5676,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="43.05" customHeight="1">
+    <row r="12" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>622</v>
       </c>
@@ -5691,7 +5705,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="43.05" customHeight="1">
+    <row r="13" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>582</v>
       </c>
@@ -5731,7 +5745,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.109375" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -5742,7 +5756,7 @@
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>702</v>
       </c>
@@ -5771,7 +5785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="41.25" customHeight="1">
+    <row r="2" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>621</v>
       </c>
@@ -5800,7 +5814,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="41.25" customHeight="1">
+    <row r="3" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>625</v>
       </c>
@@ -5829,7 +5843,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="41.25" customHeight="1">
+    <row r="4" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>627</v>
       </c>
@@ -5858,7 +5872,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>631</v>
       </c>
@@ -5887,7 +5901,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="41.25" customHeight="1">
+    <row r="6" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>626</v>
       </c>
@@ -5916,7 +5930,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="41.25" customHeight="1">
+    <row r="7" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>637</v>
       </c>
@@ -5945,7 +5959,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="41.25" customHeight="1">
+    <row r="8" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>584</v>
       </c>
@@ -5974,7 +5988,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="41.25" customHeight="1">
+    <row r="9" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>586</v>
       </c>
@@ -6003,7 +6017,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="41.25" customHeight="1">
+    <row r="10" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>588</v>
       </c>
@@ -6032,7 +6046,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="41.25" customHeight="1">
+    <row r="11" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>590</v>
       </c>
@@ -6061,7 +6075,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="41.25" customHeight="1">
+    <row r="12" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>639</v>
       </c>
@@ -6090,7 +6104,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="41.25" customHeight="1">
+    <row r="13" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>641</v>
       </c>
@@ -6119,7 +6133,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="41.25" customHeight="1">
+    <row r="14" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>624</v>
       </c>
@@ -6148,7 +6162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="41.25" customHeight="1">
+    <row r="15" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>582</v>
       </c>
@@ -6177,7 +6191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="41.25" customHeight="1">
+    <row r="16" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>632</v>
       </c>
@@ -6206,7 +6220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="41.25" customHeight="1">
+    <row r="17" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>629</v>
       </c>
@@ -6235,7 +6249,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="41.25" customHeight="1">
+    <row r="18" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>623</v>
       </c>
@@ -6264,7 +6278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="41.25" customHeight="1">
+    <row r="19" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>634</v>
       </c>
@@ -6293,7 +6307,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="41.25" customHeight="1">
+    <row r="20" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>634</v>
       </c>
@@ -6322,7 +6336,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="41.25" customHeight="1">
+    <row r="21" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>594</v>
       </c>
@@ -6351,7 +6365,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="41.25" customHeight="1">
+    <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>622</v>
       </c>
@@ -6380,7 +6394,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="41.25" customHeight="1">
+    <row r="23" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>628</v>
       </c>
@@ -6416,13 +6430,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2143B076-89FA-40F2-A04D-EC574B3744A1}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" customWidth="1"/>
@@ -6435,7 +6449,7 @@
     <col min="9" max="9" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>702</v>
       </c>
@@ -6464,7 +6478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="41.25" customHeight="1">
+    <row r="2" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>629</v>
       </c>
@@ -6484,7 +6498,7 @@
         <v>689</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>691</v>
@@ -6493,7 +6507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="41.25" customHeight="1">
+    <row r="3" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>631</v>
       </c>
@@ -6513,7 +6527,7 @@
         <v>689</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>691</v>
@@ -6522,7 +6536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="41.25" customHeight="1">
+    <row r="4" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>583</v>
       </c>
@@ -6542,7 +6556,7 @@
         <v>689</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>691</v>
@@ -6551,7 +6565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>594</v>
       </c>
@@ -6571,7 +6585,7 @@
         <v>689</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>691</v>
@@ -6580,7 +6594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="41.25" customHeight="1">
+    <row r="6" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>635</v>
       </c>
@@ -6600,7 +6614,7 @@
         <v>689</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>691</v>
@@ -6609,7 +6623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="41.25" customHeight="1">
+    <row r="7" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>593</v>
       </c>
@@ -6629,7 +6643,7 @@
         <v>689</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>691</v>
@@ -6638,7 +6652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="41.25" customHeight="1">
+    <row r="8" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>597</v>
       </c>
@@ -6658,7 +6672,7 @@
         <v>689</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>691</v>
@@ -6667,7 +6681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="41.25" customHeight="1">
+    <row r="9" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>642</v>
       </c>
@@ -6687,16 +6701,16 @@
         <v>689</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>766</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="41.25" customHeight="1">
+    <row r="10" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>666</v>
       </c>
@@ -6716,7 +6730,7 @@
         <v>689</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>691</v>
@@ -6725,7 +6739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="41.25" customHeight="1">
+    <row r="11" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>647</v>
       </c>
@@ -6745,7 +6759,7 @@
         <v>701</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>691</v>
@@ -6754,7 +6768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="41.25" customHeight="1">
+    <row r="12" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>647</v>
       </c>
@@ -6774,7 +6788,7 @@
         <v>689</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>691</v>
@@ -6783,7 +6797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="41.25" customHeight="1">
+    <row r="13" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>611</v>
       </c>
@@ -6803,7 +6817,7 @@
         <v>689</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>691</v>
@@ -6812,7 +6826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="41.25" customHeight="1">
+    <row r="14" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>611</v>
       </c>
@@ -6832,7 +6846,7 @@
         <v>701</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>691</v>
@@ -6841,7 +6855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="41.25" customHeight="1">
+    <row r="15" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>613</v>
       </c>
@@ -6861,7 +6875,7 @@
         <v>689</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>691</v>
@@ -6870,7 +6884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="41.25" customHeight="1">
+    <row r="16" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>663</v>
       </c>
@@ -6890,7 +6904,7 @@
         <v>689</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>691</v>
@@ -6899,7 +6913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="41.25" customHeight="1">
+    <row r="17" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>667</v>
       </c>
@@ -6919,7 +6933,7 @@
         <v>689</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>691</v>
@@ -6928,7 +6942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="41.25" customHeight="1">
+    <row r="18" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>608</v>
       </c>
@@ -6948,7 +6962,7 @@
         <v>689</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>691</v>
@@ -6957,7 +6971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="41.25" customHeight="1">
+    <row r="19" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>618</v>
       </c>
@@ -6977,16 +6991,16 @@
         <v>689</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="41.25" customHeight="1">
+    <row r="20" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>668</v>
       </c>
@@ -7006,7 +7020,7 @@
         <v>689</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>691</v>
@@ -7015,7 +7029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="41.25" customHeight="1">
+    <row r="21" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>669</v>
       </c>
@@ -7035,7 +7049,7 @@
         <v>689</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>691</v>
@@ -7044,7 +7058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="41.25" customHeight="1">
+    <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>637</v>
       </c>
@@ -7064,7 +7078,7 @@
         <v>689</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>691</v>
@@ -7073,7 +7087,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="41.25" customHeight="1">
+    <row r="23" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>584</v>
       </c>
@@ -7093,7 +7107,7 @@
         <v>689</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>691</v>
@@ -7102,7 +7116,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="41.25" customHeight="1">
+    <row r="24" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>586</v>
       </c>
@@ -7122,7 +7136,7 @@
         <v>689</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>691</v>
@@ -7131,7 +7145,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="41.25" customHeight="1">
+    <row r="25" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>588</v>
       </c>
@@ -7151,7 +7165,7 @@
         <v>689</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>691</v>
@@ -7160,7 +7174,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="41.25" customHeight="1">
+    <row r="26" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>590</v>
       </c>
@@ -7180,7 +7194,7 @@
         <v>689</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>691</v>
@@ -7189,7 +7203,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="41.25" customHeight="1">
+    <row r="27" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>639</v>
       </c>
@@ -7209,7 +7223,7 @@
         <v>689</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>691</v>
@@ -7218,7 +7232,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="41.25" customHeight="1">
+    <row r="28" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>592</v>
       </c>
@@ -7238,7 +7252,7 @@
         <v>689</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>691</v>
@@ -7247,7 +7261,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="41.25" customHeight="1">
+    <row r="29" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>630</v>
       </c>
@@ -7267,7 +7281,7 @@
         <v>689</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>691</v>
@@ -7276,7 +7290,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="41.25" customHeight="1">
+    <row r="30" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>596</v>
       </c>
@@ -7296,7 +7310,7 @@
         <v>689</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>691</v>
@@ -7305,7 +7319,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="41.25" customHeight="1">
+    <row r="31" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>636</v>
       </c>
@@ -7325,7 +7339,7 @@
         <v>689</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>691</v>
@@ -7334,7 +7348,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="41.25" customHeight="1">
+    <row r="32" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>638</v>
       </c>
@@ -7354,7 +7368,7 @@
         <v>689</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>691</v>
@@ -7363,7 +7377,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="41.25" customHeight="1">
+    <row r="33" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>640</v>
       </c>
@@ -7383,7 +7397,7 @@
         <v>689</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>691</v>
@@ -7392,7 +7406,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="41.25" customHeight="1">
+    <row r="34" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>598</v>
       </c>
@@ -7412,7 +7426,7 @@
         <v>689</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>691</v>
@@ -7421,7 +7435,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="41.25" customHeight="1">
+    <row r="35" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>652</v>
       </c>
@@ -7441,7 +7455,7 @@
         <v>689</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>691</v>
@@ -7450,7 +7464,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="41.25" customHeight="1">
+    <row r="36" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>671</v>
       </c>
@@ -7470,7 +7484,7 @@
         <v>689</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>691</v>
@@ -7479,7 +7493,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="41.25" customHeight="1">
+    <row r="37" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>595</v>
       </c>
@@ -7499,7 +7513,7 @@
         <v>689</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>691</v>
@@ -7508,7 +7522,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="41.25" customHeight="1">
+    <row r="38" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>595</v>
       </c>
@@ -7528,7 +7542,7 @@
         <v>701</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>691</v>
@@ -7537,7 +7551,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="41.25" customHeight="1">
+    <row r="39" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>661</v>
       </c>
@@ -7557,7 +7571,7 @@
         <v>689</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>691</v>
@@ -7566,7 +7580,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="41.25" customHeight="1">
+    <row r="40" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>651</v>
       </c>
@@ -7586,7 +7600,7 @@
         <v>689</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>691</v>
@@ -7595,7 +7609,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="41.25" customHeight="1">
+    <row r="41" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>615</v>
       </c>
@@ -7615,7 +7629,7 @@
         <v>689</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>691</v>
@@ -7624,7 +7638,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="41.25" customHeight="1">
+    <row r="42" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>599</v>
       </c>
@@ -7644,7 +7658,7 @@
         <v>689</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>691</v>
@@ -7653,7 +7667,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="41.25" customHeight="1">
+    <row r="43" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>619</v>
       </c>
@@ -7673,7 +7687,7 @@
         <v>689</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>691</v>
@@ -7682,7 +7696,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="41.25" customHeight="1">
+    <row r="44" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>653</v>
       </c>
@@ -7702,7 +7716,7 @@
         <v>689</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>691</v>
@@ -7711,7 +7725,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="41.25" customHeight="1">
+    <row r="45" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>610</v>
       </c>
@@ -7731,7 +7745,7 @@
         <v>689</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>691</v>
@@ -7740,7 +7754,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="41.25" customHeight="1">
+    <row r="46" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>675</v>
       </c>
@@ -7760,7 +7774,7 @@
         <v>689</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>691</v>
@@ -7769,7 +7783,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="41.25" customHeight="1">
+    <row r="47" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>612</v>
       </c>
@@ -7789,7 +7803,7 @@
         <v>689</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>691</v>
@@ -7798,7 +7812,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="41.25" customHeight="1">
+    <row r="48" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>656</v>
       </c>
@@ -7818,7 +7832,7 @@
         <v>689</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>691</v>
@@ -7827,7 +7841,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="41.25" customHeight="1">
+    <row r="49" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>684</v>
       </c>
@@ -7847,7 +7861,7 @@
         <v>689</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>691</v>
@@ -7856,7 +7870,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="41.25" customHeight="1">
+    <row r="50" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>659</v>
       </c>
@@ -7876,7 +7890,7 @@
         <v>689</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>691</v>
@@ -7885,7 +7899,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="41.25" customHeight="1">
+    <row r="51" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>620</v>
       </c>
@@ -7905,7 +7919,7 @@
         <v>689</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>691</v>
@@ -7914,7 +7928,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="41.25" customHeight="1">
+    <row r="52" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>678</v>
       </c>
@@ -7934,7 +7948,7 @@
         <v>689</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>691</v>
@@ -7943,7 +7957,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="41.25" customHeight="1">
+    <row r="53" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>679</v>
       </c>
@@ -7963,7 +7977,7 @@
         <v>689</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>691</v>
@@ -7972,7 +7986,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="41.25" customHeight="1">
+    <row r="54" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>680</v>
       </c>
@@ -7992,7 +8006,7 @@
         <v>689</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>691</v>
@@ -8001,7 +8015,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="41.25" customHeight="1">
+    <row r="55" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>682</v>
       </c>
@@ -8021,7 +8035,7 @@
         <v>689</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>691</v>
@@ -8030,7 +8044,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="41.25" customHeight="1">
+    <row r="56" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>621</v>
       </c>
@@ -8050,7 +8064,7 @@
         <v>689</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>691</v>
@@ -8059,7 +8073,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="41.25" customHeight="1">
+    <row r="57" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>622</v>
       </c>
@@ -8079,7 +8093,7 @@
         <v>689</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>691</v>
@@ -8088,7 +8102,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="41.25" customHeight="1">
+    <row r="58" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>627</v>
       </c>
@@ -8108,7 +8122,7 @@
         <v>689</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>691</v>
@@ -8117,7 +8131,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="41.25" customHeight="1">
+    <row r="59" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>641</v>
       </c>
@@ -8137,7 +8151,7 @@
         <v>689</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>691</v>
@@ -8146,7 +8160,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="41.25" customHeight="1">
+    <row r="60" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>633</v>
       </c>
@@ -8166,7 +8180,7 @@
         <v>689</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>691</v>
@@ -8175,7 +8189,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="41.25" customHeight="1">
+    <row r="61" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>643</v>
       </c>
@@ -8195,7 +8209,7 @@
         <v>689</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>691</v>
@@ -8204,7 +8218,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="41.25" customHeight="1">
+    <row r="62" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>644</v>
       </c>
@@ -8224,7 +8238,7 @@
         <v>689</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>691</v>
@@ -8233,7 +8247,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="41.25" customHeight="1">
+    <row r="63" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>646</v>
       </c>
@@ -8253,7 +8267,7 @@
         <v>689</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>691</v>
@@ -8262,7 +8276,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="41.25" customHeight="1">
+    <row r="64" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>603</v>
       </c>
@@ -8282,7 +8296,7 @@
         <v>689</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>691</v>
@@ -8291,7 +8305,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="41.25" customHeight="1">
+    <row r="65" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>605</v>
       </c>
@@ -8311,7 +8325,7 @@
         <v>689</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>691</v>
@@ -8320,7 +8334,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="41.25" customHeight="1">
+    <row r="66" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>607</v>
       </c>
@@ -8340,7 +8354,7 @@
         <v>689</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>691</v>
@@ -8349,7 +8363,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="41.25" customHeight="1">
+    <row r="67" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>609</v>
       </c>
@@ -8369,7 +8383,7 @@
         <v>689</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>691</v>
@@ -8378,7 +8392,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="41.25" customHeight="1">
+    <row r="68" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>645</v>
       </c>
@@ -8398,7 +8412,7 @@
         <v>689</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>691</v>
@@ -8407,7 +8421,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="41.25" customHeight="1">
+    <row r="69" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>648</v>
       </c>
@@ -8427,7 +8441,7 @@
         <v>689</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>691</v>
@@ -8436,7 +8450,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="41.25" customHeight="1">
+    <row r="70" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>649</v>
       </c>
@@ -8456,7 +8470,7 @@
         <v>689</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>691</v>
@@ -8465,7 +8479,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="41.25" customHeight="1">
+    <row r="71" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>650</v>
       </c>
@@ -8485,7 +8499,7 @@
         <v>689</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>691</v>
@@ -8494,7 +8508,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="41.25" customHeight="1">
+    <row r="72" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>658</v>
       </c>
@@ -8514,7 +8528,7 @@
         <v>689</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>691</v>
@@ -8523,7 +8537,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="41.25" customHeight="1">
+    <row r="73" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>617</v>
       </c>
@@ -8543,7 +8557,7 @@
         <v>689</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>691</v>
@@ -8552,7 +8566,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="41.25" customHeight="1">
+    <row r="74" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>601</v>
       </c>
@@ -8572,7 +8586,7 @@
         <v>689</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>691</v>
@@ -8581,7 +8595,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="41.25" customHeight="1">
+    <row r="75" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>602</v>
       </c>
@@ -8601,7 +8615,7 @@
         <v>689</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>691</v>
@@ -8610,7 +8624,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="41.25" customHeight="1">
+    <row r="76" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>604</v>
       </c>
@@ -8630,7 +8644,7 @@
         <v>689</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>691</v>
@@ -8639,7 +8653,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="41.25" customHeight="1">
+    <row r="77" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>672</v>
       </c>
@@ -8659,7 +8673,7 @@
         <v>689</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>691</v>
@@ -8668,7 +8682,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="41.25" customHeight="1">
+    <row r="78" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>673</v>
       </c>
@@ -8688,7 +8702,7 @@
         <v>689</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>691</v>
@@ -8697,7 +8711,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="41.25" customHeight="1">
+    <row r="79" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>653</v>
       </c>
@@ -8717,7 +8731,7 @@
         <v>701</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>691</v>
@@ -8726,7 +8740,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="41.25" customHeight="1">
+    <row r="80" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>606</v>
       </c>
@@ -8746,7 +8760,7 @@
         <v>689</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>691</v>
@@ -8755,7 +8769,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="41.25" customHeight="1">
+    <row r="81" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>654</v>
       </c>
@@ -8775,7 +8789,7 @@
         <v>689</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>691</v>
@@ -8784,7 +8798,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="41.25" customHeight="1">
+    <row r="82" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>676</v>
       </c>
@@ -8804,7 +8818,7 @@
         <v>689</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>691</v>
@@ -8813,7 +8827,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="41.25" customHeight="1">
+    <row r="83" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>655</v>
       </c>
@@ -8833,7 +8847,7 @@
         <v>689</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>691</v>
@@ -8842,7 +8856,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="41.25" customHeight="1">
+    <row r="84" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>657</v>
       </c>
@@ -8862,7 +8876,7 @@
         <v>689</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>691</v>
@@ -8871,7 +8885,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="41.25" customHeight="1">
+    <row r="85" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>677</v>
       </c>
@@ -8891,7 +8905,7 @@
         <v>689</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>691</v>
@@ -8900,7 +8914,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="41.25" customHeight="1">
+    <row r="86" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>677</v>
       </c>
@@ -8920,7 +8934,7 @@
         <v>701</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>691</v>
@@ -8929,7 +8943,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="41.25" customHeight="1">
+    <row r="87" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>662</v>
       </c>
@@ -8949,7 +8963,7 @@
         <v>689</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>691</v>
@@ -8958,7 +8972,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="41.25" customHeight="1">
+    <row r="88" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>685</v>
       </c>
@@ -8978,7 +8992,7 @@
         <v>689</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>691</v>
@@ -8987,7 +9001,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="41.25" customHeight="1">
+    <row r="89" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>614</v>
       </c>
@@ -9007,7 +9021,7 @@
         <v>689</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>691</v>
@@ -9016,7 +9030,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="41.25" customHeight="1">
+    <row r="90" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>616</v>
       </c>
@@ -9036,7 +9050,7 @@
         <v>689</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>691</v>
@@ -9045,7 +9059,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="41.25" customHeight="1">
+    <row r="91" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>616</v>
       </c>
@@ -9065,7 +9079,7 @@
         <v>701</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>691</v>
@@ -9074,7 +9088,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="41.25" customHeight="1">
+    <row r="92" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>660</v>
       </c>
@@ -9094,7 +9108,7 @@
         <v>689</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>691</v>
@@ -9103,7 +9117,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="41.25" customHeight="1">
+    <row r="93" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>664</v>
       </c>
@@ -9123,7 +9137,7 @@
         <v>689</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>691</v>
@@ -9132,7 +9146,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="41.25" customHeight="1">
+    <row r="94" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>681</v>
       </c>
@@ -9152,7 +9166,7 @@
         <v>689</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>691</v>
@@ -9161,7 +9175,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="41.25" customHeight="1">
+    <row r="95" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>625</v>
       </c>
@@ -9181,7 +9195,7 @@
         <v>689</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>691</v>
@@ -9190,7 +9204,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="41.25" customHeight="1">
+    <row r="96" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>626</v>
       </c>
@@ -9210,7 +9224,7 @@
         <v>689</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>691</v>
@@ -9218,46 +9232,6 @@
       <c r="I96" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
